--- a/alignements.xlsx
+++ b/alignements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\AJ-VO.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8DF005A-3CBD-44A6-A263-8AEAFC884DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70E67B6-19C1-45B1-8DD0-D508989B2959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{43916A26-967C-4774-9BE7-C4E16FDAB80F}"/>
   </bookViews>
@@ -33,6 +33,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Match ()</t>
+  </si>
+  <si>
+    <t>Monte descends</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +394,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D17CF24-E6A3-4A17-A92A-572EFA0D3468}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="30.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
+        <v>0.90625</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>